--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/31_Erzurum_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/31_Erzurum_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28EE291C-63B3-416C-B310-6C1D6490A607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C55658-2F82-4704-9761-368C7B89D295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="682" xr2:uid="{FF3190D3-3E80-4DB7-96CE-243ACD21DE42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{CD8F8D87-76C5-4685-89F3-BD5990320BFD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E7DE1DB7-E060-4B7A-B5D3-41FC08807C6A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7F5C5B42-D1D3-4C5A-9C45-DA25FB2F9077}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{24921259-D875-4880-87B1-12DE1D81C60C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{ACE6043C-08DD-4B4F-92C9-1BB612EC6A2A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6F562B31-A600-4FE2-9D94-1C36911328A0}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{0830BDEF-01FE-4D56-95AC-8B035A72D3B4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{FBBCCD31-98A0-45E6-8CE3-C76E49D86134}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{41E69505-B759-4918-BC3C-B9AEADCA983F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1733651A-94E0-4007-8CF7-AAADBC041C61}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{9CD9B32A-BD37-48A0-A07B-784764856236}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{BAAED23B-F36A-4A30-A99B-BE6C08FF5FEF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{79E0ABFA-3A08-47D5-8119-6EBAB099ECC5}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{E9F3D586-D421-4F2F-999A-5AE1BC4BB178}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3F1B3CB1-8746-4010-A13C-E7504FF48C65}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F847A5-4F40-453A-B95B-D64DDB8DC09B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA5721E-16C3-4717-A996-800E1D21D008}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2634,17 +2634,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C4668A9-D6CC-4A80-85C4-AFE011D6C67F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A115FD37-3DD4-4BF6-9251-743097406DFC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7E4F3430-6FB9-4C19-BE00-C29EB479E971}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{725E83D3-EBCF-4105-924A-A1A0CD1C9ED7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE400F11-7918-4A45-88A0-FA72392D8EF5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6D310E9F-2C93-4B4D-AED2-1B782A04E86A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BE5C494-CA88-4837-BFEA-66824570CF9C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5A23C69-B197-4CD5-8975-87EDC099BC8F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CE966327-2970-4919-808A-21ED619D2156}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{33D30FC5-8861-4DEB-B788-915F8E433D8A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D86965F4-4E06-4BB6-94E9-2A81998E8B94}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D607668-6D16-45A4-BC76-C428D1A37880}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35BF0675-EE1E-4ECE-83BC-5C327744174C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC555099-CDDE-43B6-A721-228229434926}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{459345C4-C627-4387-B080-DD25EFC9D551}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9387E25-FB75-4F8F-AC3C-FDFA9D17D1EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{44C7D5DB-D920-4D44-BAF2-B80A25684AAD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E080F54E-ED05-45BB-B26F-B18E2C6AFAB1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5988563C-BBA4-4406-8A1A-97AA875F46EA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8A6DB995-265C-4A70-904E-22C247D36559}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{645CD2EE-16D8-4FF5-BFF9-A183732375FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE6120F0-37BA-43FC-83FA-30B50D3DAB19}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2657,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8CA1E5-4290-4160-8FB3-3DB6266C5C65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23ADD1FD-4EA1-4EC9-86A1-CC7EAABFA950}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3919,17 +3919,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EDE6EBDC-3E8D-4FF0-A9AD-2CC6AE774F7B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A227F1B-BFB3-43F4-B48B-4119B07A460C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{35D860A3-23D1-4092-B21D-904519F59421}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A6813BF7-BF11-47D7-8565-F84EFE298C3E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF78A23F-E3D6-46C9-954D-9A1BCB9F0ACB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B1A58ED2-7E46-467D-B66A-5D1342B2B72D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04B772F2-9E5D-46B5-8A99-383E4F180F1B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{681E7B7D-AF63-4A12-8EB0-8DDDB060522A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{21762748-1CA9-4465-8D73-7F8A8CC36A19}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{22B503BD-8A69-4A3C-98EC-4EDA0568CF4D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{045238BE-6F72-4994-996D-628F2DEFD30D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A388BCF3-A2E6-463D-B0B0-47EA99414337}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ABC0BC6F-E78D-47B8-8423-461F39063C1E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{18D765CF-188B-4F29-A9FA-051FD7970315}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D66145F-5F23-47B7-869D-9AF749C15084}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C2B0E47-8C37-41C5-A742-002C438F2E7B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F591F9CB-C674-464C-9349-F791BF58BAD1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE8383D2-14A6-4265-A68A-342FFB47FBE2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F15B1D6E-2C14-4EDF-8D3C-4FB8B06C05A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3D668410-E613-43E5-90C7-76DB3C0D6569}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2BC55DEB-7C7F-4016-A6AE-CA40AAC8F90A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2019CDD8-8F25-43ED-BCFA-51FB2855A6AC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3942,7 +3942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5532A8-CFD9-4800-A546-7B959E29D8C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596784B9-EBCF-4396-AD84-1EB73CF6FE2B}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5190,17 +5190,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3CA71841-F26C-435B-9DC7-B519E191DDF5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F136717D-26CD-49AC-A6B1-AB3997D97CCB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{64C11E4A-CC4D-4DCB-8454-4D45FF8C9FD1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1BCA1667-2734-43F5-8C3E-E1BC19AC6C3D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36FCD76F-941A-4294-98EE-D07947FC3362}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AEFAFDCF-D4B5-4B51-A94F-93D9E9B2B41E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1EEEEC4C-8FDD-48DB-9DCA-F1FAD5FB8417}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB322872-AE62-45C0-83E9-1534DC18DB9D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F2EF4751-64B3-4EE8-BC8A-A6CC8DF24FEA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6985CB92-D98B-48D7-BE33-F6D6E8A97083}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1876E998-0C74-40BA-A9FB-43B6BC62C746}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DD30633-B341-4F67-83CC-7DF616C384B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B04815E5-E1F7-4836-A66C-4F77E1AD1B39}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB803CD5-A79E-44E3-A495-9E64285FEDD5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AFCE56FC-3B95-4CC8-998F-BA0E5EC59222}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01718875-3657-4539-8FB8-F2BEED01656E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9AADEDCF-CD3F-42AB-977D-8BB287CE6AF9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25553AD3-29CD-46F1-92D1-6543956BF545}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5AF5772-2D5B-48B1-A47D-E242861C45E7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FFDFBB08-BD2C-4B5E-AA8B-500959CC6051}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ADB7DB83-BC7D-4952-BF54-DE0F6BE0890E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DDB43B79-F040-46E0-929A-05CF3100062F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5213,7 +5213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B92182-38D5-4F48-8161-6FC9A1687279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154CB010-8E27-4244-BDE7-F51280BB51E5}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6461,17 +6461,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3FDA922A-AB9B-47CE-8232-416DF61AB117}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1103C98E-224B-404F-9425-183F0AE34B1C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5ADD1C8F-ABF6-458A-8E11-E804526D5762}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2E66144B-57F4-4121-BAB5-6469C1CA2087}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7F8DEBA-85D1-4F67-B3C7-8FB240352C6B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9AAE50B-1851-4E71-8305-9DF85986E5E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95009A26-BA72-476D-93F8-07361395C518}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8620D04-5F3A-43EE-AAA1-A9995FC5C25D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3940167C-DE38-46E6-915D-BE03D68D2782}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D69E43AF-7F3A-4BD4-BD77-C754F20D124A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B757824-7CDA-450A-8226-AC7C53635B98}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7B87104-8C01-45B5-B174-76DEFCCC535D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68849D03-FFB2-4B1C-986D-4C3DC0452B5C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB310C75-E3DF-4063-AB97-F97378FD3881}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{14B5D97C-AB64-41A4-A23E-77F90C179ECD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC081CE8-43D6-4038-B372-9E488CFB315C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4ECEEDBF-CEE0-4A66-ACCC-27E4463609BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F78F432-46E3-4F40-8EC1-1473AD8452CE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5363C9A-7162-4A5C-BEEA-4C0DD47AEBA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F63B615B-34DA-4D52-BB4D-792967D627B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{25F2BB8F-2C09-4B73-A58D-263A51ABD411}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA16471D-C26E-4295-AD7D-6CECEBAB7B6D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6484,7 +6484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FCAB53-42A2-4C62-8C48-41398402F3CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D135CED-3163-4BCC-8837-3687160E3742}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7765,17 +7765,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEE62C41-2E71-4815-88B2-5BA5AFC9BC9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37B511AA-971E-4867-B78E-AFB917399A8B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BDB99285-8D99-4F37-9297-5B904D47B5CB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8413D7C3-2781-4248-80BB-CFB9A69C54E8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1BB3BF74-172D-4489-8515-E715A65CF9EA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD43D76F-B351-4FB2-8B93-1BD38DB2E2F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7C675BC-A35B-451C-8707-94D91993E711}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B825429-394E-4E91-994D-242A1A64DBC3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3DD64D31-4D9E-4C05-A915-BB619B13A5E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{24E63340-FA71-4437-A594-3D86528254D2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5366A79B-7C74-4565-B0C5-C085B86D5490}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB2D85CB-1DF8-4555-A541-3FD4C661EE68}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{031CBEF2-BDDB-4094-B491-8849F0422AF6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F1F7B79-C4A4-469D-8360-68BD81B5956E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8D0F82FD-6BEA-49FC-BB7E-859ED76F8C97}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{379EA6F8-F309-4219-B9F3-5E22EA641DF4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D7412E1-425C-4D02-98A2-4B31B4D685C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3ED3D88-7272-4973-9B32-FCB2B43774E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D86A49BE-1F4B-4361-9A97-6023018CA15B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F3969042-B256-440A-9716-97F9F4FA5022}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{42562279-DC5A-43D1-8FF8-DCF1DB6A578E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94D3F5BD-6A9E-4304-A506-BEB9272B677A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7788,7 +7788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14280F48-E5CB-4E08-B6EC-DFD0DCC96BD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7108258-E5CB-49EE-A41E-5302F7DB249D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9069,17 +9069,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C41A426-2592-4E16-8E49-B3E4013FA434}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C04A00F1-F035-409F-B5F8-8DE6337A8FE4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{355EA23F-E0C3-4736-AD7E-740615148FCF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CE5616F8-2FA9-4F1B-B980-57EF6570B607}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41B83AF3-7A34-430B-8346-42A8C90E42F4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9ADDEB8F-5602-40DE-B5D5-3FE7A2F6985A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E89C1AF-C752-4790-9B79-3FDAE15D13E6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{564D25D1-EFB4-40C9-8CDF-8501122BD7EF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F054B84B-AC48-499A-B08E-163E5170A818}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9708EF6E-4CE0-4053-AB80-01CB7CC580BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89484CED-B8FC-445D-A167-F9995FBF7699}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5266C9FF-21E6-4137-B6C4-AABD16CC73F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B1859AB-7C2F-494E-8BD6-C4170225DB62}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8E5BFBD0-35C5-4B17-9EC1-71B31D4CA5CB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A20FAE4D-F8B6-4057-BA78-009203C71FCE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE7B7E41-D742-43A1-8050-5C255D955BE4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CF7201D-1376-45DE-A73C-50DDF0F13736}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F35C6926-93E6-47F9-B485-418921D7AC76}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{135B676C-5EBB-448D-AEE2-1844FF58D63D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D033C8CE-6008-413A-A50A-6303D21D5815}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EE4A50E8-0989-441A-AF04-0E149AC5220F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BCB9A493-B5DD-4F06-81C3-4C0BFEC541FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9092,7 +9092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51653287-4870-43F1-B456-DC9C14C98738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E8D796-8200-4943-BB3C-2B71D8C891E7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10373,17 +10373,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC1D5513-E5E8-4F09-82B8-DEF5113AD1B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCF5F415-2344-4CEC-B39D-FAF8DF8333A7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DFF6C65D-311D-4621-8420-97B018FC86D6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CAF6202-254B-407B-AB09-CCC46706CC29}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C83E4A15-6BF3-451A-B5A8-6EAABC758876}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD3936EC-C9AA-41E1-9105-7F2ED277FECB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28C5AC05-0C81-405F-959E-3DFC52588D0D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B87F8F1B-7DDE-4651-BE44-072196FF4AF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{87F0DA75-B1BA-47EB-ACE2-59FB398C05FD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6378F7AA-7DA2-43EB-9C78-143C1D9D3A1D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1D7EBBE-48E2-45D3-A217-FA05E677212A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F27E5A43-E255-4238-8A1D-5AD8FB47BAA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C20B95E-0FBE-420D-84FF-2BE343B63629}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{18703C27-8092-42B5-A9D8-4E7011963BB7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE8E3036-5266-462F-8F0D-BEFB43B7ED27}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B289A1C-FED5-4254-B345-27506E8CFDEB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C830BAF-196E-4E8F-B3D5-3BCD6E1166DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5173487E-B113-467B-9998-4DECBCD0BA6C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95E0EF57-CDEE-4C15-B373-7D4317ADEAE2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{121E755C-83F6-4B18-B336-642C34CA689E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{55CA49FC-CE5E-4731-917F-D50CB53C0ED3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19097EF7-3ADA-444D-B509-6FA859827D42}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10396,7 +10396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74700504-A3C9-4DED-8FA5-C10EC7E3E359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D85073D-0A53-4556-8C2A-57BFC2ED25C0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11673,17 +11673,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C67E9D43-1031-4A3D-ADB3-D1CDE35F7A19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41B72506-B35E-4EF1-9BC8-69307DD5FAC9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{712F66C9-D397-4DEC-9248-1AA027D919AF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D022F68-F6B7-413B-B98E-BF5BBC88B814}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{020DBBC9-0A4D-4D66-BA59-08799975F7D1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5697C8B1-B685-4BD1-86FA-2020D125E182}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBAD5361-AB9B-4FC8-8C1A-5B794CF5F569}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{501E93FC-1434-4CE4-84A3-FEC29CCB83C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F36DCBE6-307B-4A7D-9D0C-0732CD6324BF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FA7AE500-A969-4E28-A29B-66F436614020}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9822812-00B6-4C85-A146-1FBFDB141C88}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8538BB6-BB90-4CC5-959D-B6D32609A738}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDA1E604-0048-4A1C-A756-15487A0063BC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B352C9A4-6235-4837-9134-10FD9C2A0913}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{930D5582-95D6-44F8-B8E7-66C0E29B8A03}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC0443E1-03EE-4579-9B31-6165E76397BA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9CBFEF70-8C0C-49EA-90E0-AD761574B5BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCAB1AD1-F582-4AAE-9B7A-A5A6179ABB34}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93AF652C-FC46-4ECB-9C13-9E5410B32987}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9160730D-72A8-4A78-B34C-C8670AB4B9E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{748270D7-A73C-4CCE-AB7D-D8D4333965C8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D174340-D6B9-4E43-8E40-692E921957F1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11696,7 +11696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31706DA6-5566-42CB-AA4C-7ED26F251EAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4F1110-A615-41B7-9D6E-89B7A36212E9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12973,17 +12973,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1D7F858-6B3D-4602-AA50-E083DBD26147}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BC0A7ED-59AD-4109-897F-A89F452DB611}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A03DBB39-C5FF-455E-9FF3-62BC72D33088}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A2EF821C-62AF-4412-9A97-20BAABF55D3C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AFCA1F7-9402-4FB8-9248-3928646C2F6C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{41221659-7CAD-4102-8857-20D06CB0CFF1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA90AAAE-0030-4726-B7C6-522D2DE306C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C7C2A19-9B12-4330-B1E2-CB151FAFBAB7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{370DE9E6-10BC-486E-B851-3F643BADFCA9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7298181B-EDE5-4ECD-954F-F40FE1B79775}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C444137-EF5F-461C-89D3-57B7F8C84FCC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6617434-2046-429F-9AEE-3FF9C58B785F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02D64DF4-D76C-4C74-A62D-0C158C46FB87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{49CD5487-4F35-41CF-9E62-6A43B7D7B74C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{679727BF-32BE-489D-81B6-BAD1BA2A571A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11FC8D4A-2924-4F2D-A34C-BC981D64CED4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94995E79-010A-4457-934D-C385454ECB01}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03F095FB-0028-461F-AFB7-909B19702D89}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68151E6C-59C0-4084-B9A8-5DD3B59B3C79}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1DF7498D-30EF-4DE4-B41C-878873F7BE0B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7E2EF440-C428-4162-A464-4CF37F711CC6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B001A46-0FF1-4224-8539-43B635E63FFE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12996,7 +12996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74696A39-9638-47FA-9B5D-082ED2B93F4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1E02F6-56B1-4957-B7B5-4118F2A258D0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14273,17 +14273,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E1EC25D-D86A-4864-A9F7-19DE2E088E09}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A8CF6E0-46CD-4D99-AA57-B4B2525E905A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E5EFF35-FEAD-4AFA-A0BC-172720EAF2C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A10C6114-E909-4E5F-81D9-B24C04D55682}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F2C2D1C2-3F5C-443C-8C75-2C2D75FBF80D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC042FC3-4415-4C4E-9048-87666990C609}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C56721C-9DA3-4230-8537-EE27CD281D8F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93F41224-E83B-44D4-AEF3-34A4C850EEF4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5D3D9D33-4C28-4582-BFF3-1062C2AA4649}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{472A882A-BEAC-4940-9178-4D63A58D7608}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1640E32-505E-41F1-90D2-E5BB9371FA9F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{361A5C6B-BABD-4AFE-B16F-E0D55F8C449E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ABFE60F2-FEFC-471D-83BE-2CA8E7F8DFC8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{08ECF5FA-9649-4ED7-AE95-40B3B97F4A8B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B637F0AA-A7AE-4E74-A3DD-03538C174151}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4A572A36-9F8A-4FA0-B43F-8544A8B723CD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C488FE1-6F70-4178-9C3B-D28575AC4893}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F646BC3-A162-4CE2-B29D-FAED28DA5F84}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4CBDD923-0300-444B-977E-48BF1BF19D73}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4D1C2F24-A174-4EAB-8D96-B4BDD8BA259A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{256BD8DF-32DA-418C-957B-DAD402621917}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D59759DD-0B1C-48F2-9403-DA4587FDE4A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14296,7 +14296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E0E5C1-BF46-4402-98BA-5A0B32C0804A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A862A679-65C1-481B-AD1E-B0F28BC010A5}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15558,17 +15558,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37CADA24-F1EE-4809-9185-1B94636075A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{630265AB-5D6C-4CB2-9667-8CB82D195ADD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{87B88F81-5A66-4A30-8B18-75B789742397}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{36E713AB-FF1A-402A-A548-F12148ADD4CA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66DCEBED-FC35-4E54-BB74-01178460BE35}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11184A04-90F2-4C59-9DA3-A0220FBF9C21}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB3FA2BD-053C-4F40-9F8A-2CDADB6F63EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40A53D91-0F8B-4F85-86A3-6CE685E0372F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{78B5DEEB-7A6F-4C0A-92CB-FD090ADB3763}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{55D862A2-D42C-406A-83C9-8E55F93071C2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{688B5F4D-175E-4563-AFE3-F3777D484482}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C11F734A-1119-4B19-82A0-D887BAE1C09C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55C65536-F9F3-4706-BEA4-E6851C17FDEC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{20231450-11A8-465A-8A31-7A5D534984B9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3C07CC5F-5D72-43B7-9430-BDDA31F2E819}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1BC9C042-9827-4A10-9BD7-733A56065CD4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6017A693-1EA2-4183-9B7F-07481A2DC38C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9EEFEEA-448D-4D32-B342-0CA8D39746B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E35B7254-0049-4069-8C0E-29B030127FA2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{06E58452-AB18-49E6-A81C-EFB6B5110577}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{67E53D56-0AAE-4527-AC37-232DB8C7AC0F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15AF8771-9AE7-4C3C-A2D0-030BBFF56141}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15581,7 +15581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A6BDB4-D6D8-485F-89DE-669C8DFB2BE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF9B4A1-2573-487C-A47D-ADCAAC5629EC}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16843,17 +16843,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F854C6A-BF65-4FE2-8297-2275E487B5EC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6ED04964-AA37-4E4E-9DCA-C9E18E863F11}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{41C70956-EBB5-4E04-A4B2-F6AB8E346E01}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4E52C2E-EE0C-4B76-9177-891E6824A57F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCC8450C-36BA-484C-884D-FA67F40F191C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30ADE280-0EC5-4CA1-A206-3B81B5DFF481}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{192DC591-1AE1-41D1-930C-0CA6EA533F5E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3608AC5F-0123-4C59-ABB3-A1AD8DB884D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EA486D74-1C04-4A0D-B0AF-F85F4DAF9C5D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{865655DF-2657-493A-B7AC-CD954ECE24F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BA4E0866-BFBD-4E71-A6B1-D8C59A368DA2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B857F491-ADAE-4FA3-A0C5-B1B910BB0785}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3191A043-D955-4911-8D1E-21358DC3EF0B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FDA3F5DE-C95B-436E-9134-566F6A889FE1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{450559B6-4102-4C0A-B0E7-3AF3CB17DF59}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64C4D88C-07C3-40C8-899F-E05A6FDF760C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A1058C7-49C0-4D8A-8519-711794224E24}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DF4568C-F8C9-4564-B722-6598ACEAA6A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78BB6FC1-C371-4F68-882F-78C9C7A7B32A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{590423BC-57CE-4CF6-BCF2-6C290517CD45}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{319E747B-A8CD-42BE-A16F-3C04376E0EC3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0716879D-5940-4CD3-898E-7BD6BA705E8D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
